--- a/tradept/Excel/Localization/english/J剧本设定_StoryMode_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/J剧本设定_StoryMode_hotfix.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3547844F-19C6-44C5-8737-736A45F806B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408B8278-44E0-4C87-89A7-44E247680E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -40,9 +40,6 @@
     <t>心灵巫师</t>
   </si>
   <si>
-    <t>Spiritmancer</t>
-  </si>
-  <si>
     <t>你是一名心灵巫师。在这片土地上有各种各样的巫师，但是你的存在依然是稀罕至极。消除记忆、控制思维、制造幻象……这些都是你作为心灵巫师独特的本领。但你必须低调行事，因为你的名字在老旧泛黄的地下悬赏名单中依旧闪闪发光。
 &lt;?ABILITY_ICON?&gt;
 心灵巫术可以凝聚心中的负面情绪生成负能量的魔弹，呵斥敌人产生震爆。也可以召唤魔影来为自身作战。通过独特的巫术，心灵巫师可以进行短距离的空间传送。
@@ -56,9 +53,6 @@
     <t>心灵女巫</t>
   </si>
   <si>
-    <t>Spirit Witch</t>
-  </si>
-  <si>
     <t>你是一名新晋巫师。尽管身为阿莱雅山之巅的风暴大师的弟子，你仍然选择了一条被师父看不起的道路，成为巫师中的异类——心灵巫师。而此次只身前往大漠游历，则是为了证明自己——你想要挑战这片土地和部落上的所有心灵巫师，站到别人从未去过的山巅，做到别人从未做到的成就。
 &lt;?ABILITY_ICON?&gt;
 你掌握的是全新的心灵巫术，能在控制敌人，扰乱心智，——最后把人们最深处的恐惧转化为自己的力量。你有极高的巫术天赋，有研习各种顶级风暴巫术的潜力。
@@ -69,9 +63,6 @@
     <t>鬣狗</t>
   </si>
   <si>
-    <t>Jackal</t>
-  </si>
-  <si>
     <t>赏金猎人，是一项极具传奇色彩的职业。危险和神秘促就他们的魅力。而你就是一个赏金组织的首领，有着震慑大漠的名号——鬣狗。为金钱，为名利，为未来，你们就是大漠中令人闻风丧胆的捕食者。
 &lt;?ABILITY_ICON?&gt;
 你如同幻影一般神出鬼没，作为一名赏金猎人，你善于使用钩锁抓捕目标，且具有一系列通过击倒敌人获取乌塔的技能。
@@ -82,9 +73,6 @@
     <t>野性之魂</t>
   </si>
   <si>
-    <t>Shaman</t>
-  </si>
-  <si>
     <t>你是一名变形者，日蚀带来了诅咒，让这片原本就不安宁的土地上多出了许多变异的生命体，拥有野兽变化能力的你常常被误认为是受诅咒者。然而你的力量并非来自日蚀，而是刻在血脉之中，自远古流传而来。不知为何，你忘记了以前的所有，甚至对自己的野兽之力都感到陌生。你看着眼前的漫漫黄沙，不知来路，也不知归途……
 &lt;?ABILITY_ICON?&gt;
 作为野兽血脉的传承者，你可以变身为野兽并得到力量增幅。此外，据说，你似乎拥有着巨龙的血脉，在将来的旅途中也许你能将它发掘出来...
@@ -95,9 +83,6 @@
     <t>剑豪</t>
   </si>
   <si>
-    <t>Knight-Errant</t>
-  </si>
-  <si>
     <t>你是一名技艺高强的剑豪，你行侠仗义的故事在大漠每个角落传颂。你的存在被大部分的部落所忌惮，他们无一例外地对你抱有极大的敌意。
 &lt;?ABILITY_ICON?&gt;
 作为剑豪，你掌握一套早已在外失传的剑法，能在装备长剑时发挥出巨大的威力。
@@ -106,9 +91,6 @@
   </si>
   <si>
     <t>逐风幻刃</t>
-  </si>
-  <si>
-    <t>Bladedancer</t>
   </si>
   <si>
     <t>&lt;size=40&gt;逐风幻刃&lt;/size&gt;&lt;color=yellow&gt;（难度：一般）&lt;/color&gt;
@@ -163,9 +145,6 @@
     <t>圣灵卫士</t>
   </si>
   <si>
-    <t>Sentinel</t>
-  </si>
-  <si>
     <t>你是一名来自骆驼城的武士。你的父亲曾是旧王朝的宫廷护卫长官，他传授给你了一系列的战斗技巧。他时常告诫你，一个人的力量是有限的，要保护好手足的士兵们。
 &lt;?ABILITY_ICON?&gt;
 在父亲的教诲下，你研习了旧王近卫的指挥法则，具有一系列的光环效果。同时你继承了一把圣剑，在你需要它的时候，便可召唤出来，劈斩一切邪恶。
@@ -179,9 +158,6 @@
     <t>领主</t>
   </si>
   <si>
-    <t>Sultan</t>
-  </si>
-  <si>
     <t>你是一个不知名小部落的首领之子，在大漠中游历，如今你的父亲意外去世，你临危受命成为新的首领，面对内外的重重危机，你需要带领你的部落子民们走向繁荣！
 &lt;?ABILITY_ICON?&gt;
 你的家族世代掌握着已经近乎失传的机械技术，你可以使用古代机械来加强你的武器与战术，并在战场上部署塔楼来掩护军队。
@@ -190,9 +166,6 @@
   </si>
   <si>
     <t>赏金猎人</t>
-  </si>
-  <si>
-    <t>Bounty Hunter</t>
   </si>
   <si>
     <t>&lt;size=40&gt;赏金猎人&lt;/size&gt;&lt;color=red&gt;（难度：困难）&lt;/color&gt;
@@ -213,9 +186,6 @@
     <t>野兽血脉</t>
   </si>
   <si>
-    <t>Beastmaster</t>
-  </si>
-  <si>
     <t>&lt;size=40&gt;野兽血脉&lt;/size&gt;&lt;color=red&gt;（难度：困难）&lt;/color&gt;
 &lt;color=green&gt;【此角色具有专属剧情】&lt;/color&gt;
 【旧版的野性之魂技能，剧情与野性之魂相同】
@@ -231,9 +201,6 @@
     <t>无名剑主</t>
   </si>
   <si>
-    <t>The Nameless</t>
-  </si>
-  <si>
     <t>&lt;color=red&gt; (需至少120个传承点才能解锁该职业)&lt;/color&gt;
 你是这个世界中的“外来者”，你的存在被所有的部落所忌惮，他们无一例外地对你抱有极大的敌意。
 &lt;?ABILITY_ICON?&gt;
@@ -248,9 +215,6 @@
     <t>野马王[SkipAvata][SkipName]</t>
   </si>
   <si>
-    <t>Akhal Sultan[SkipAvata][SkipName]</t>
-  </si>
-  <si>
     <t>你是野马部落的领袖——野马王苍骐。你曾经作为人质，在骆驼城的宫廷里生活了十几年，和银珊公主在你少年时期就定下婚约；旧王朝崩溃时，你率领野马部落的骑兵军队赶来支援，但是无奈没有赶到骆驼城，雄鹰部落已经废黜了旧王。于是你占据了西多喀那沙漠，自立为野马王，谋划着击败雄鹰与毒蝎，推翻鹰王在骆驼城的统治。
 &lt;?ABILITY_ICON?&gt;
 你作为野马部落的领袖，拥有战无不胜的刀法和抵抗力；同时对骑兵军队有着独特的指挥能力。但是毒蝎已经与雄鹰结成联盟对抗你，你必须训练军队，积极对抗他们即将到来的入侵。
@@ -264,9 +228,6 @@
     <t>雄鹰领主[SkipAvata][SkipName]</t>
   </si>
   <si>
-    <t>Nasir Sultan[SkipAvata][SkipName]</t>
-  </si>
-  <si>
     <t>你是新任雄鹰领主——霍驹。少年时的你便随着父亲霍鹿来到了他的新都城——也是旧王朝的旧都城——骆驼城生活。在那里，你每天被关在王宫里，读书写字，训练战斗。鹰王并不需要一个儿子，他需要的是一个可以为他发起战争的将军，一个可以完成他野心的继承人。现在鹰王已经老了，你被顺理成章的派到红石城，成为新的雄鹰领主——除鹰王之外最高的称号，你要在这里为父亲打下整片大漠。但是你知道这并不是自己想要的生活，所以究竟是一统大漠，还是推翻自己那残暴的父亲，亦或是归隐田园，当一个普通人。命运掌握在霍驹自己的手里。
 &lt;?ABILITY_ICON?&gt;
 你作为雄鹰部落的领袖，拥有雄鹰的秘术和刀法。
@@ -280,9 +241,6 @@
     <t>蝎后[SkipAvata][SkipName]</t>
   </si>
   <si>
-    <t>Dakn Queen[SkipAvata][SkipName]</t>
-  </si>
-  <si>
     <t>你是毒蝎部落的领袖——蝎后阿曼莎。你的哥哥长螯——曾经是毒蝎部落的首领和第一刺客，与雄鹰部落的鹰王霍鹿合谋攻下了骆驼城。在雄鹰部落的心灵巫师控制住守卫后，城破当晚，长螯带着阿曼莎和一众毒蝎刺客潜入王宫，手刃了旧王和他的近卫官卡塔拉。但是阿曼莎搜遍了整个王宫都没有找到年幼的银珊公主。之后雄鹰部落因为红石城的归属权和毒蝎部落的联盟破裂，长螯因此大病一场，从此卧床不起。阿曼莎接手了毒蝎部落，用她独有的手段得到了风哭岩地区，她现在正密谋夺取由鹰王之子——新晋的雄鹰领主霍驹掌管的红石城，也许还有更多。
 &lt;?ABILITY_ICON?&gt;
 你作为毒蝎部落的领袖，拥有下毒与控制毒蝎的能力。
@@ -290,163 +248,194 @@
 你具有较高的巫术天赋，具有学习任何系的巫术到高级的潜力。毒蝎部落控制着地形复杂的风哭岩区域，有四位毒蝎将军辅佐你。</t>
   </si>
   <si>
-    <t>Eres una poderosa bruja espiritual que ha tomado un camino diferente al de tus pares. Antiguamente, fuiste discípula de un renombrado Archimago de la Tormenta en las majestuosas Montañas Ilyas. Sin embargo, decidiste seguir un camino despreciado por tu maestro y el resto del mundo mágico: el camino de los Spiritmancers. Esta elección te llevó a ser expulsada, y ahora te encuentras en el vasto desierto, decidida a demostrar tus habilidades tanto a ti misma como a aquellos que dudan de ti.
-¿Cuál es tu esperanza? No es otra mas que desafiar a todos los Spiritmancers en esta tierra, alzarte en la cima de las montañas indómitas y lograr hazañas inimaginables. Tu deseo ardiente es probar que el camino de los Spiritmancers es tan válido y poderoso como cualquier otro en el mundo mágico.
-&lt;?ABILITY_ICON?&gt;
-Como bruja espiritual, te destacas en las nuevas y modernas técnicas de magia de los Spiritmancers. Puedes controlar a tus enemigos y sumir el campo de batalla en la confusión, utilizando tus habilidades para manipular sus miedos más profundos y convertirlos en tu fortaleza. Como estudiante talentosa de Arcano, también tienes la capacidad de aprender los Arcanos de Tormenta más avanzados, lo que te permite dominar aún más tus habilidades y desatar el poder de las tormentas.
-&lt;?CHAR_ICON?&gt;
-Aunque no cuentas con seguidores en este momento, sigues siendo reconocida como la antigua discípula de un Archimago de la Tormenta. Como resultado, comienzas tu viaje con tres cristales de sabiduría adicionales y la capacidad de utilizar magia de viento básica. Si bien no tienes un séquito a tu lado, puedes compensar esta carencia seleccionando habilidades que te permitan superar tus deficiencias y alcanzar nuevas alturas en tu camino como bruja espiritual.</t>
-  </si>
-  <si>
-    <t>Eres un maestro espiritual destinado a vagar por los desiertos en busca de un propósito mayor. En esta vasta tierra, habitada por numerosos espiritmancers, tu habilidad y dominio de la magia te destacan como alguien digno de mención. El control de los recuerdos, los pensamientos y las ilusiones se ha convertido en tu pan de cada día, aunque debes mantener un perfil bajo debido a la recompensa que puede haber por tu cabeza.
-&lt;?ABILITY_ICON?&gt;
-Tu habilidad distintiva radica en la capacidad de concentrar la negatividad pura en bolas de energía explosiva, infligiendo daño devastador a tus enemigos. Además, puedes invocar una sombra que lucha a tu lado, convocando a un poderoso aliado en la batalla. Como Spiritmancer, también dominas la técnica de parpadeo, lo que te permite teletransportarte a distancias cortas con facilidad, otorgándote una ventaja táctica en combate.
-&lt;?CHAR_ICON?&gt;
-Durante uno de tus viajes, te encontraste con una hábil Hashashin llamada Zeynep, quien yacía herida y al borde de la muerte. Salvaste su vida y desde entonces se ha convertido en tu fiel compañera, siendo tu única familia en este mundo. Como estudiantes talentosos de Arcana, los Spiritmancers tienen la capacidad de aprender y dominar cualquier rama de los Talentos, expandiendo así su dominio sobre la magia y desarrollando habilidades aún más poderosas.</t>
-  </si>
-  <si>
-    <t>Aquellos pocos valientes y audaces que se atreven a enfrentar lo que otros consideran difícil, o lo que nadie más se atreve, son conocidos como cazarrecompensas. Esta profesión es una carrera peligrosa y adictiva, llena de capas y espadas. Tú eres el líder de un renombrado grupo de cazarrecompensas conocido como Los Chacales, famosos en todas las regiones desérticas. Tu futuro está repleto de fama y fortuna, siempre y cuando sigas recorriendo los mortales desiertos en busca de tu siguiente presa.
-&lt;?ABILITY_ICON?&gt;
-Tu habilidad característica se basa en moverte como una sombra sigilosa. Como cazarrecompensas, eres experto en rastrear y capturar a tus objetivos, mientras acumulas riquezas y reconocimiento por derrotar a tus enemigos. Tu destreza te permite desplazarte con agilidad, evitando la detección y sorprendiendo a tus presas cuando menos se lo esperan.
-&lt;?CHAR_ICON?&gt;
-A diferencia de otros personajes, los arcanos no son lo tuyo. No puedes aprender ni dominar ningún Arcano mágico. Sin embargo, posees una habilidad única: la capacidad de entrenar a reclutas y convertirlos en compañeros cazarrecompensas. Comienzas tu aventura con dos cazarrecompensas como seguidores, quienes te acompañan y apoyan en tus arriesgadas misiones. Tu experiencia y liderazgo les permiten aprender de ti, convirtiéndolos en valiosos aliados en la caza de recompensas.
-Con tus habilidades de sigilo, tu equipo de cazarrecompensas y tu ambición desmedida, estás listo para enfrentar los desafíos del desierto y perseguir incansablemente a tus objetivos, mientras te abres camino hacia la gloria y la riqueza.</t>
-  </si>
-  <si>
-    <t>Eres un teriantropo, un humano capaz de transformarse en una bestia. La llegada del Sol Negro trajo consigo una maldición que retorció la vida de los habitantes locales. Sin embargo, comprendes que esta "maldición" simplemente liberó el poder latente que llevas en tus venas. De alguna manera, has perdido tu apariencia pareciendote a un hibrido humano-animal, ya ni tu propio aroma te resulta familiar. Te encuentras perdido en un desierto de arenas polvorientas, sin saber tu origen ni cuál es tu destino...
-&lt;?ABILITY_ICON?&gt;
-Como heredero de la línea de sangre de los teriantropos, tienes la asombrosa capacidad de cambiar y convertirte en poderosas bestias. Además, según la leyenda, corre por tus venas la sangre de los dragones. Si te entrenas arduamente, podrás aprender a invocar y dominar tus poderes draconianos.
-&lt;?CHAR_ICON?&gt;
-Debido a tus fuertes instintos bestiales, no tienes la capacidad de aprender ningún Arcano. Sin embargo, posees una conexión especial con las criaturas de la naturaleza y puedes comunicarte con ellas. Durante una expedición, encontraste a algunos lobos que parecían haberse separado de su manada. Por alguna razón, te siguen de cerca y no puedes alejarlos de tu lado...
-Este misterio te envuelve mientras te adentras en el desierto, explorando tu propia identidad y buscando respuestas sobre tu origen y tu destino incierto. Con tus habilidades de teriantropo, tu vínculo con la naturaleza y la posibilidad vincularte con los poderosos animales, te enfrentarás a desafíos inimaginables y descubrirás el verdadero significado de tu existencia.</t>
-  </si>
-  <si>
-    <t>Eres un espadachín experto cuyas habilidades para robar a los ricos y ayudar a los pobres han construido una leyenda en el desierto. Tu valentía y destreza con la espada han captado la atención de todas las tribus, aunque te miran con una mezcla de hostilidad y temor.
-&lt;?ABILITY_ICON?&gt;
-El dominio de la espada te ha otorgado un conocimiento profundo de técnicas perdidas hace mucho tiempo. Eres capaz de blandir una espada larga y pesada con una destreza increíble, moviéndote como el viento en el campo de batalla. Además, tus conocimientos de los Arcanos te permiten desplegar increíbles técnicas, combinando tu maestría en el combate físico con el poder mágico. Estas habilidades son tus mayores fortalezas en la batalla, permitiéndote enfrentar cualquier desafío con confianza.
-&lt;?CHAR_ICON?&gt;
-Aunque eras un huérfano, fuiste criado por Spiritmancers, lo que te brindó una educación flexible en los Arcanos. Esta formación te ha permitido aprender y dominar cualquier rama de los Arcanos hasta el nivel de Maestro. Eres una verdadera fuerza polifacética en la magia, capaz de adaptarte y utilizar una amplia variedad de habilidades arcanas según sea necesario. Comienzas los combates con tres cristales de sabiduría adicionales, lo que te otorga puntos de habilidad extra para mejorar aún más tus habilidades.
-Sin embargo, tu relación con las tribus no es buena. Todas ellas han puesto un alto precio por tu cabeza y hay carteles con tu rostro por todo el desierto con la leyenda siguiente: &lt;color=red&gt;Se busca vivo o muerto&lt;/color&gt;. Esto significa que te persiguen enemigos en cualquier momento y te resulta difícil ingresar a las ciudades sin llamar la atención. Debes estar alerta y preparado para enfrentar cualquier desafío, ya que tu fama y tus acciones han atraído tanto admiradores como enemigos en todas partes.</t>
-  </si>
-  <si>
-    <t>&lt;font size=40&gt;Bladedancer&lt;/font&gt; &lt;color=yellow&gt;(Dificultad: Normal)&lt;/color&gt;
-Eres un espíritu libre que va y viene como el viento; bailando como el trueno.
-&lt;font size=30&gt;Habilidades&lt;/font&gt;
-Posees una serie de habilidades de daño basadas en el movimiento.
-&lt;font size=30&gt;Arcanos&lt;/font&gt;
-Eres inusualmente perceptivo y tienes un conocimiento avanzado de los Arcanos, lo que te permite aprender todos los Arcanos de nivel 2.
-&lt;font size=30&gt;Seguidores&lt;/font&gt;
-No tienes seguidores en este momento.
-&lt;font size=30&gt;Especialidad&lt;/font&gt;
-Tu experiencia colorida te otorga 3 Cristales de Sabiduría adicionales al comienzo de tu aventura.</t>
-  </si>
-  <si>
-    <t>&lt;font size=40&gt;Hashashin&lt;/font&gt; &lt;color=red&gt;(Dificultad: Desconocida)&lt;/color&gt;
-Eres un esquivo Hashashin. Aunque completamente anónimo, tu maestría en las artes sigilosas, la reubicación rápida y los dardos engañosos infunden temor en los corazones de tus adversarios.
-&lt;font size=30&gt;Habilidades&lt;/font&gt;
-Utiliza una variedad de habilidades de parpadeo, apuñalamiento, sigilo y daño explosivo.
-&lt;font size=30&gt;Arcanos&lt;/font&gt;
-Posees una comprensión básica de los Arcanos y puedes aprender todos los Arcanos de nivel 1.
-&lt;font size=30&gt;Seguidores&lt;/font&gt;
-No tienes seguidores en este momento.
-&lt;font size=30&gt;Especialidad&lt;/font&gt;
-Tu experiencia colorida te dota de 3 Cristales de Sabiduría adicionales al comienzo de tu aventura.</t>
-  </si>
-  <si>
-    <t>Eres un formidable guerrero perteneciente a una brutal tribu sedienta de sangre. Adoras el entrenamiento físico, pues comprendes que es la clave para incrementar tu fuerza y poder. Siempre estás en busca de oponentes más poderosos y dignos con el fin de medir tus habilidades y poner a prueba tu valía.
-&lt;?ABILITY_ICON?&gt;
-Como guerrero, posees una amplia variedad de habilidades físicas. Te destacas en el combate cuerpo a cuerpo y tienes un dominio excepcional de todas las armas que utilizas. Además, tienes la capacidad de especializarte en el estilo de combate que desees, adaptándote a diferentes situaciones y enfoques estratégicos. Cuando entras en un estado de furia conocido como Outburst, todas las armas y arcanos se vuelven mucho menos útiles para tu supervivencia, pero tu poder físico se intensifica, convirtiéndote en una fuerza imparable en la batalla y dandote la capacidad de enfrentar numerosos enemigos a la vez. 
-&lt;?CHAR_ICON?&gt;
-Desprecias la búsqueda del conocimiento arcano y no puedes aprender ni utilizar Arcanos. Sin embargo, eres un luchador excepcional, capaz de enfrentarte y derrotar incluso a feroces osos en combates cuerpo a cuerpo sin necesidad de armas. Estos encuentros han forjado una extraña amistad entre tú y los osos con los que entrenas, quienes te reconocen como un digno oponente y se han convertido en tus compañeros en la lucha.
-Con tu dedicación al entrenamiento físico, tu maestría en el combate cuerpo a cuerpo y tus inusuales amigos osos, te abres camino a través de las tierras desafiantes, en busca de desafíos mayores y la oportunidad de demostrar tu fuerza incomparable.</t>
-  </si>
-  <si>
-    <t>Eres una guerrera honorable de la ciudad de Jamal, siguiendo los pasos de tu padre, quien solía luchar en la guardia del palacio. Aprendiste las formas de combate de él y comprendiste la importancia de confiar en tus aliados durante el combate.
-&lt;?ABILITY_ICON?&gt;
-Tu padre te transmitió los principios de mando enseñados por el Antiguo Imperio, lo que te otorga la capacidad de crear efectos de aura que benefician a ti y a tus aliados en el campo de batalla. Estas auras fortalecen y protegen a aquellos que luchan a tu lado, brindando un impulso adicional y mejorando su desempeño en combate. Además, heredaste una poderosa espada divina que puedes invocar en momentos de mayor necesidad. Esta espada sagrada tiene el poder de eliminar cualquier mal que se te presente, convirtiéndote en una fuerza imparable contra tus enemigos.
-&lt;?CHAR_ICON?&gt;
-Con todo lo que has aprendido y las grandes victorias que has conseguido para tu pueblo, has decidido forjar tu propio camino lejos de la sombra de tu padre. Aunque no tienes un dominio completo de los Arcanos, gracias a las enseñanzas de tu querida tía, una hechicera de la corte del palacio, tienes una comprensión básica de ellos y puedes aprender todos los arcanos básicos. Esta combinación de habilidades marciales y conocimiento arcano te convierte en una guerrera completa y versátil.
-Tu liderazgo y valentía han inspirado a otros guerreros, especialmente a los ballesteros, quienes se encuentran bajo tu mando y están dispuestos a luchar a tu lado. Con tu presencia inspiradora y tu habilidad para coordinar a tus tropas, te conviertes en un símbolo de esperanza y determinación para tu pueblo y lideras a tus seguidores hacia la victoria en en el campo de batalla.</t>
-  </si>
-  <si>
-    <t>Eres un príncipe sin nombre perteneciente a una tribu desconocida que deambula por el desierto. Tras la inesperada muerte de tu padre, has heredado el título de Sultán y ahora llevas el manto de tu familia. Tu misión es proteger a tu tribu de las traiciones y los enemigos, y guiarlos hacia un futuro nuevo y glorioso.
-&lt;?ABILITY_ICON?&gt;
-La ciencia perdida de la mecánica es una tradición ancestral en tu familia, y tú eres el patrono de esta antigua disciplina. Gracias a esto, tienes la capacidad de utilizar Ancient Machine, una tecnología antigua que te permite mejorar tus armas y tácticas de combate. Además, puedes desplegar torres en el campo de batalla para proporcionar cobertura estratégica a tus tropas, brindándoles una ventaja táctica en la batalla.
-&lt;?CHAR_ICON?&gt;
-Durante tu juventud, recibiste un estricto entrenamiento en los Arcanos, lo que te ha convertido en un Maestro de Arcanos. Esta profunda comprensión de la magia te permite aprender y dominar todos los Arcanos de nivel 3. Comienzas con una pequeña ciudad que puedes expandir, construyendo edificios para entrenar a tus tropas y fortalecer tus defensas. Sin embargo, debes tener cuidado, ya que los invasores pueden amenazar tu territorio en cualquier momento. Es crucial establecer relaciones diplomáticas con otras tribus, ya que a través de estas alianzas puedes aprender sobre su cultura y entrenar a sus tropas, ampliando así tus capacidades militares y fortaleciendo tu posición.
-Recuerda estar siempre atento, ya que las tropas enemigas pueden invadirte en cualquier momento. Tu habilidad para proteger y liderar a tu tribu será fundamental para asegurar un futuro próspero y glorioso. Con tu conocimiento de los Arcanos, tus habilidades en la mecánica y tu perspicacia diplomática, estás preparado para enfrentar los desafíos y forjar un camino triunfante en medio del vasto desierto.</t>
-  </si>
-  <si>
-    <t>Eres un ser forastero en este mundo, sin familia y con un origen desconocido, eres un ser que provoca una mezcla de hostilidad y temor en las tribus que lo habitan. Tu presencia trasciende los límites de la comprensión humana y se te considera la reencarnación de un dios, un ser ajeno a este mundo.
-Tu conocimiento y habilidades van más allá de lo que cualquier otro ser humano podría alcanzar. Posees una sabiduría y poder divinos que superan las limitaciones de este mundo. Tu presencia inspira asombro y reverencia en aquellos que te rodean, aunque también puede generar temor y envidia.
-&lt;?ABILITY_ICON?&gt;
-Como forastero, tienes la capacidad única de seleccionar habilidades de cualquier otra clase utilizando tus Puntos de Legado. Esto te permite adaptarte y aprender habilidades diversas, aprovechando lo mejor de cada clase y creando un estilo de juego único y versátil.
-&lt;?CHAR_ICON?&gt;
-En cuanto a los Arcanos, tienes la libertad de seleccionar cualquier Arcano disponible en la Tienda de Clases. Esta amplia variedad de opciones te permite acceder a diferentes poderes y habilidades mágicas, añadiendo una dimensión adicional a tus capacidades en el campo de batalla.
-Sin embargo, tu relación con todas las tribus es pobre. Te ven como un forastero y pueden arrestarte o declararte la guerra a voluntad. Debes ser cauteloso y estar preparado para enfrentar los desafíos que surjan de estas interacciones tensas.
-Tu posición como forastero te otorga una perspectiva única y la oportunidad de forjar tu propio camino en este mundo. Con tu habilidad para seleccionar habilidades y arcanos de diferentes clases, y la conciencia de las tensiones tribales, estás destinado a enfrentar desafíos únicos y dejar una huella indeleble en esta tierra enigmática.&lt;color=red&gt; (Requiere 120+ Puntos de Legado para desbloquear)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Como líder de los Akhal, eres el Sultan Bahat de esta poderosa tribu. Tu vida ha estado llena de giros inesperados y desafíos. Durante más de diez años, fuiste rehén en la corte de la Ciudad de Jamal, donde te ganaste el corazón de la princesa Ilayda, con quien te casaste siendo aún joven. Sin embargo, cuando el Viejo Imperio amenazó con colapsar, lideraste a los jinetes de los Akhal para apoyarlos, pero lamentablemente llegaste tarde y los Akhal ya habían depuesto al rey. Ahora, como el rey del Desierto de West Docana, tu objetivo es llevar a cabo una venganza justa, destruyendo a los Nasir y Dakn, y expulsando al rey Nasir de la Ciudad de Jamal.
-&lt;?ABILITY_ICON?&gt;
-Como líder de los Akhal, has desarrollado habilidades inigualables en el manejo de la espada y posees una gran resistencia. Tu formación como guerrero en la corte te sometió a duros entrenamientos, lo que te permitió adquirir estas habilidades destacadas. Eres el único que comanda a los jinetes de los Akhal, una fuerza temible y poderosa. Sin embargo, enfrentas un desafío formidable, ya que los Dakn y los Nasir se han aliado en tu contra. Prepárate para una posible invasión de estas dos poderosas facciones y utiliza tus habilidades de liderazgo y destreza en el combate para defender a tu pueblo y asegurar la victoria contra tus enemigos.
-&lt;?CHAR_ICON?&gt;
-No tienes talento para la magia, ya no has sido entrenado en el arte arcano, tu dominio de la espada y tu liderazgo indudable te han convertido en un líder admirado y respetado. Comienzas con un equipo de élite de caballería Akhal, una fuerza formidable y leal que te acompañará en tus batallas. Además, tienes el respaldo de tres generales Akhal, quienes te brindarán su apoyo y sabiduría en tus decisiones.
-Tu destino como líder de los Akhal es desafiante, ya que enfrentas amenazas tanto internas como externas. Deberás tomar decisiones sabias y valientes para proteger a tu pueblo y alcanzar tus objetivos de venganza y justicia. Con tu habilidad en la espada, tu astucia táctica y el apoyo de tus leales seguidores, estás preparado para liderar a los Akhal hacia la grandeza y asegurar su lugar en este mundo conflictivo.</t>
+    <t>Bruxa dos Espíritos</t>
+  </si>
+  <si>
+    <t>Xamã</t>
+  </si>
+  <si>
+    <t>Sentinela</t>
+  </si>
+  <si>
+    <t>Sultão</t>
+  </si>
+  <si>
+    <t>Caçador de Recompensas</t>
+  </si>
+  <si>
+    <t>Mestre das Feras</t>
+  </si>
+  <si>
+    <t>O Sem Nome</t>
+  </si>
+  <si>
+    <t>Akhal Sultão[SkipAvata][SkipName]</t>
+  </si>
+  <si>
+    <t>Nasir Sultão[SkipAvata][SkipName]</t>
+  </si>
+  <si>
+    <t>Rainha Dakn[SkipAvata][SkipName]</t>
+  </si>
+  <si>
+    <t>Spiritmancer (Invocador de Espíritos)</t>
   </si>
   <si>
     <t xml:space="preserve">
-Eres el nuevo Nasir Sultan - Husnu. Desde joven, seguiste a tu padre, el poderoso Imran, a una nueva ciudad: la antigua capital del Viejo Imperio, la Ciudad de Jamal. Allí, pasaste cada día atrapado en el palacio, aprendiendo las artes académicas y militares. Imran no necesita un hijo, necesita un general, un sucesor digno que pueda cumplir las ambiciones de los Nasir.
-Ahora, el rey Nasir es anciano y te han enviado a la Fortaleza de Piedra Roja para convertirte en el nuevo Nasir Sultan, el segundo en importancia después del rey Nasir. Desde aquí, conquistarás todo el desierto en nombre de tu padre.
-Sin embargo, no sabes si esta es la vida que deseas. Ahora debes decidir si dominarás el desierto, derrocarás a tu cruel padre o seguirás los pasos de tu hermano mayor y te retirarás al campo para vivir tu propia vida. Tu destino está en tus manos.
-&lt;?ABILITY_ICON?&gt;
-Como líder de los Nasir, has sido entrenado como un formidable guerrero desde una corta edad. Tu educación abarca todas las áreas del saber, lo que te ha otorgado la capacidad de utilizar tanto la magia como las armas en combate. Eres versátil en tus habilidades y puedes adaptarte a diferentes estilos de lucha según las necesidades del momento. Tu dominio tanto de la magia como de las armas te brinda una ventaja significativa en el campo de batalla. Ya sea que prefieras atacar desde la distancia con hechizos devastadores o enfrentarte cara a cara con armas en mano, tu versatilidad te brinda la capacidad de adaptarte a cualquier desafío que se presente. 
-&lt;?CHAR_ICON?&gt;
-Gracias a tu entrenamiento exhaustivo, has perfeccionado tus habilidades marciales y mágicas. Eres especialmente diestro en el arte arcano, con el potencial de aprender cualquier tipo de Arcano avanzado. Los Nasir controlan el eje central de Salzaar, la Fortaleza de Piedra Roja y el fértil Valle de las Gemelas Lunas. Cuatro generales Nasir te apoyan en tus acciones y te brindan su experiencia y lealtad.
-Eres un líder poderoso y respetado, capaz de liderar a los Nasir en la batalla y proteger los intereses de tu pueblo. Pero tu destino como líder de los Nasir es incierto y desafiante. Debes tomar decisiones difíciles que definirán tu futuro y el futuro de tu pueblo. Ya sea que decidas seguir los pasos de tu padre, buscar un nuevo camino o desafiar su autoridad, tu habilidad en la magia y el liderazgo te posicionan como una figura influyente en el desierto. El poder y la responsabilidad están en tus manos, y solo tú puedes forjar el destino de los Nasir y de ti mismo.</t>
-  </si>
-  <si>
-    <t>Eres la líder de los Dakn, la Reina Rebiya. Tu hermano mayor, Hassan, quien alguna vez fue el líder de los Dakn y el mejor Hashashin, conspiró con Husnu de los Nasir para capturar la Ciudad de Jamal. Una vez que los spiritmancers de los Nasir tomaron el control de los guardias, Hassan se infiltró en el palacio junto contigo y un grupo de hashashins Dakn para eliminar al rey y a su guardia real, Katara. Sin embargo, a pesar de buscar en todas partes, no pudieron encontrar a la joven Princesa Ilayda, heredera del trono. La alianza entre los Dakn y los Nasir se desmoronó debido a luchas internas por el control de la ciudad. Hassan cayó gravemente enfermo y ha estado postrado en cama desde entonces. Tú asumiste el liderazgo de los Dakn y también de Crying Rock mediante medios expeditivos. Ahora planeas apoderarte de Redstone Keep, la fortaleza del recién coronado Nasir Sultan Husnu. Pero tu plan no se detiene allí...
-&lt;?ABILITY_ICON?&gt;
-Desde pequeña fuiste sometida a arduos entrenamiento como Hashashin y fuiste reconocida por tu destreza en el uso de venenos y tu habilidad asesinar desde las sombras... ahora tambien como líder de los Dakn, eres la formidable Reina Rebiya, debes dirigir a los Dakn hacia la consecución de tus objetivos. Tu conocimiento de los venenos te brinda una ventaja letal en tus tácticas, permitiéndote debilitar y eliminar a tus enemigos de manera sigilosa. Eres una maestra en el arte de la manipulación y el sigilo, aprovechando las debilidades y los temores de tus oponentes para alcanzar la victoria.
-&lt;?CHAR_ICON?&gt;
-En cuanto al aspecto arcano, posees una destreza excepcional en el arte mágico, ya que los Hashashin valoran su utilidad llevar acabo sus misiones con eficacia. Tu dominio del arcano abarca diversas disciplinas, lo que te permite sobresalir en cualquier tipo de magia que decidas utilizar. Esta habilidad arcana combinada con tu liderazgo ha hecho que los Dakn sean una fuerza formidable y temida en el complejo terreno alrededor de Crying Rock. Utilizas el conocimiento del terreno a tu favor, estableciendo emboscadas estratégicas y empleando tácticas astutas para obtener la ventaja en cada enfrentamiento.
-Cuentas con el apoyo de tres generales Dakn, quienes comparten tu visión y respaldan tus ambiciones tanto para el futuro de los Dakn como para tus propios objetivos personales. Juntos, forjan un destino desafiante y lleno de intrigas, donde cada decisión que tomes será crucial para avanzar en tus planes y alcanzar tus metas.
-Como líder de los Dakn, estás preparada para enfrentar cualquier desafío y superar cualquier obstáculo que se interponga en tu camino hacia el dominio sobre Redstone Keep y más allá. Tu habilidad en el uso de venenos, tu dominio arcano y tu capacidad para liderar a los Dakn te convierten en una figura poderosa y temida en el desierto. Tu destino está en tus manos y estás decidida a llevar a tu pueblo a la grandeza y asegurar tu propio lugar en la historia.</t>
-  </si>
-  <si>
-    <t>&lt;size=40&gt;Beastmaster&lt;/size&gt; &lt;color=red&gt;(Dificultad: Difícil)&lt;/color&gt;
-&lt;color=green&gt;¡Misiones de trama disponibles!&lt;/color&gt;
-¡Habilidades originales de Chamán y trama de Chamán!
-Eres un cambiaformas. El Sol Negro ha traído su maldición, retorciendo las vidas de algunos habitantes locales. Pero esto no es una maldición; el poder latente grabado en tus venas fue liberado simplemente por las energías del Sol Negro. De alguna manera, has olvidado tus instintos bestiales; de alguna manera, tu propio aroma no te resulta familiar. Perdido en arenas polvorientas, no sabes de dónde vienes, ni dónde está tu destino...
+Você é um Spiritmancer. Há muitos Spiritmancers nesta terra, mas você é considerado particularmente notável. O controle sobre memórias, pensamentos e ilusões pode ser o seu forte, mas é melhor manter um perfil baixo enquanto houver uma recompensa por sua cabeça.
+&lt;?ABILITY_ICON?&gt;
+Concentre pura negatividade em bolas de energia que causam dano explosivo ou invoque uma sombra para lutar ao seu lado. Spiritmancers também podem se teletransportar curtas distâncias.
+&lt;?CHAR_ICON?&gt;
+Você tem um seguidor chamado Zeynep, um habilidoso Hashashin e sua única família. Como talentosos estudantes de Arcana, Spiritmancers podem aprender e dominar qualquer ramo de Talentos.</t>
+  </si>
+  <si>
+    <t>Você é uma feiticeira novata. Embora você tenha sido uma discípula de um grande Arquimago das Tempestades nas Montanhas Ilyas, você escolheu um caminho desprezado por seu mestre e pelo restante do mundo dos magos - a espiritomancia. Expulsa por sua decisão, você viajou para o deserto, pronta para provar suas habilidades para si mesma e para os céticos. Sua esperança? Desafiar todos os Spiritmancers nesta terra, conquistar montanhas selvagens e realizar feitos inimagináveis.
+&lt;?ABILITY_ICON?&gt;
+Você se destaca em novas técnicas modernas de Spiritmancer, incluindo aquelas que permitem controlar inimigos e mergulhar o campo de batalha na confusão. Você também percebe os medos mais profundos de seus inimigos e os usa como sua maior força. Como um talentoso estudante de Arcana, você pode aprender a Arcana das Tempestades mais avançada.
+&lt;?CHAR_ICON?&gt;
+Embora você não tenha seguidores, você é a ex-discípula de um Arquimago das Tempestades - você começa com 3 Cristais de Sabedoria adicionais e a habilidade de usar Arcana do Vento básica. Por favor, selecione habilidades que compensem suas deficiências.</t>
+  </si>
+  <si>
+    <t>Jackal (Chacal)</t>
+  </si>
+  <si>
+    <t>Aqueles com a coragem e a loucura para fazer o que não podemos - ou não queremos - são conhecidos como Caçadores de Recompensas. Isso pode ser uma carreira empolgante, perigosa e viciante. Você é o líder de um grupo de caçadores de recompensas famosos nas regiões do deserto conhecidas como Os Jackals. Fama e fortuna estão no seu futuro - desde que você continue exercendo sua habilidade letal no deserto.
+&lt;?ABILITY_ICON?&gt;
+Você entra e sai como uma sombra sorrateira. Caçadores de Recompensas rastreiam e capturam seus alvos enquanto ganham Utar por derrubar inimigos.
+&lt;?CHAR_ICON?&gt;
+Arcana simplesmente não é o seu forte; você é incapaz de aprender qualquer Arcana. No entanto, você tem a habilidade única de treinar recrutas para se tornarem companheiros Caçadores de Recompensas. Você começa com 2 Caçadores de Recompensas como seguidores.</t>
+  </si>
+  <si>
+    <t>Você é um metamorfo. O Sol Negro trouxe sua maldição, distorcendo a vida de alguns habitantes locais. Mas esta não é uma maldição; o poder latente entranhado em suas veias foi liberado pelas energias do Sol Negro. De alguma forma, você esqueceu seus instintos bestiais; de alguma forma, seu próprio cheiro é desconhecido. Perdido nas areias poeirentas, você não sabe de onde veio, nem onde está seu destino...
+&lt;?ABILITY_ICON?&gt;
+Como herdeiro da linhagem do Mestre das Feras, você pode se transformar em formas poderosas e bestiais. A lenda também diz que o sangue dos dragões corre em suas veias. Treine o suficiente e você pode aprender a invocar seus poderes draconianos.
+&lt;?CHAR_ICON?&gt;
+A besta não pode ser domada; você é incapaz de aprender qualquer Arcana. Você é capaz de se comunicar com criaturas na natureza. Você encontrou alguns lobos aparentemente separados da alcateia durante uma expedição. Por algum motivo, eles se apegaram a você - e você não consegue se livrar deles...</t>
+  </si>
+  <si>
+    <t>Cavaleiro Andante</t>
+  </si>
+  <si>
+    <t>Você é um espadachim habilidoso, cuja missão de roubar os ricos em benefício dos pobres construiu uma lenda entre os habitantes do deserto. Todas as tribos o consideram com uma mistura de hostilidade e temor.
+&lt;?ABILITY_ICON?&gt;
+Mestre da espada concedeu-lhe conhecimento de técnicas há muito perdidas. Equipar uma espada longa revela suas maiores habilidades.
+&lt;?CHAR_ICON?&gt;
+Órfão criado por Spiritmancers, sua educação flexível em Arcana permite que você aprenda qualquer ramo de Arcana até o nível de Mestre. Você começa o combate com 3 Cristais de Sabedoria adicionais, cada um lhe dando 1 ponto de habilidade adicional. Seu relacionamento com todas as tribos é ruim; todas as tribos têm uma &lt;color=red&gt;ordem de prisão&lt;/color&gt; contra você. Você pode se ver perseguido por inimigos a qualquer momento e é incapaz de entrar nas cidades como o normal.</t>
+  </si>
+  <si>
+    <t>Dançarina das Lâminas</t>
+  </si>
+  <si>
+    <t>&lt;size=40&gt;Dançarino de Espadas&lt;/size&gt; &lt;color=yellow&gt;(Dificuldade: Normal)&lt;/color&gt;
+Você é um espírito livre, indo e vindo como o vento; dançando como o trovão.
 &lt;size=30&gt;Habilidades&lt;/size&gt;
-Como heredero de la línea de sangre de los Beastmaster, puedes transformarte en un hombre lobo, un águila o un dragón.
+Você possui uma série de habilidades de dano em movimento.
 &lt;size=30&gt;Arcana&lt;/size&gt;
-La bestia no puede ser domada; no puedes aprender ningún Arcana.
+Incomumente perceptivo, você tem um entendimento avançado de Arcana e pode aprender todas as Arcanas de nível 2.
 &lt;size=30&gt;Seguidores&lt;/size&gt;
-Encontraste algunos lobos salvajes aparentemente separados de la manada. Por alguna razón, se sienten atraídos hacia ti y no puedes deshacerte fácilmente de ellos...</t>
-  </si>
-  <si>
-    <t>&lt;size=40&gt;Cazador de Recompensas&lt;/size&gt; &lt;color=red&gt;(Dificultad: Difícil)&lt;/color&gt;
-&lt;color=green&gt;¡Misiones de trama disponibles!&lt;/color&gt;
-Diferente conjunto de habilidades para el Cazador de Recompensas; misma trama que Los Chacales.
-Aquellos con el coraje y la locura para hacer lo que nosotros no podemos, o no queremos hacer, son conocidos como Cazadores de Recompensas. Esta puede ser una carrera emocionante, peligrosa y lucrativa.
-Eres el líder de un grupo de Cazadores de Recompensas que son infames en todas las regiones desérticas, conocidos como Los Chacales. La fama y la fortuna llenan tu futuro, siempre y cuando sigas ejerciendo tu letal oficio en el desierto.
+Você não tem seguidores.
+&lt;size=30&gt;Especialidade&lt;/size&gt;
+Sua experiência colorida lhe fornece 3 Cristais de Sabedoria adicionais no início de sua aventura.</t>
+  </si>
+  <si>
+    <t>&lt;size=40&gt;Hashashin&lt;/size&gt; &lt;color=red&gt;(Dificuldade: Desconhecida)&lt;/color&gt;
+Você é um Hashashin elusivo. Embora completamente anônimo, sua maestria nas artes furtivas, relocamento rápido e dardos astutos inspira medo nos corações dos adversários.
 &lt;size=30&gt;Habilidades&lt;/size&gt;
-Puedes convocar a poderosos Cazadores de Recompensas para que luchen a tu lado. También has sido entrenado por gigantes en el manejo de la espada ancha.
+Utilize uma variedade de habilidades de piscar, golpear pelas costas, furtividade e dano explosivo.
+&lt;size=30&gt;Arcana&lt;/size&gt;
+Você tem um entendimento básico de Arcana e pode aprender todas as Arcanas de nível 1.
+&lt;size=30&gt;Seguidores&lt;/size&gt;
+Você não tem seguidores.
+&lt;size=30&gt;Especialidade&lt;/size&gt;
+Sua experiência colorida lhe fornece 3 Cristais de Sabedoria adicionais no início de sua aventura.</t>
+  </si>
+  <si>
+    <t>Você é um guerreiro de uma tribo brutal e sedenta de sangue. Você cultua músculos e força e está sempre em busca de um oponente mais poderoso e digno.
+&lt;?ABILITY_ICON?&gt;
+Você possui uma variedade de habilidades físicas. Ao entrar em Fúria, todas as armas e Arcana se tornam muito menos ameaçadores para a sua sobrevivência. Você é excelente em usar todas as armas de combate corpo a corpo e pode se especializar em seu estilo favorito de combate.
+&lt;?CHAR_ICON?&gt;
+Você despreza a busca pelo conhecimento e é incapaz de aprender Arcana. Você é um excelente brigador e lutador, tendo derrotado ursos em combate de punhos. Desde então, eles se tornaram seus amigos.</t>
+  </si>
+  <si>
+    <t>Você é um guerreiro de Jamal City, cujo pai costumava lutar pela guarda do palácio. Você aprendeu os caminhos do combate com ele - e que um homem depende de seus aliados em combate.
+&lt;?ABILITY_ICON?&gt;
+Seu pai transmitiu os princípios de comando ensinados pelo Antigo Império, concedendo-lhe vários efeitos de aura. Você também herdou uma espada divina que pode ser convocada quando você mais precisa, eliminando qualquer mal que esteja diante de você.
+&lt;?CHAR_ICON?&gt;
+Você tem um entendimento básico de Arcana aprendido com um tio na guarda do palácio e pode aprender toda a Arcana Básica. Você treinou vários besteiros que estão dispostos a lutar ao seu lado.</t>
+  </si>
+  <si>
+    <t>Um príncipe sem nome de uma tribo desconhecida que perambula pelo deserto. Seu pai faleceu inesperadamente, passando-lhe o título de Sultão. Assuma o manto de sua família à medida que as ameaças internas e externas se aproximam. Liderar sua tribo para um futuro novo e glorioso!
+&lt;?ABILITY_ICON?&gt;
+Sua família é tradicionalmente patrona da ciência perdida da mecânica. Você pode usar Machina Antiga para melhorar suas armas e táticas. Você pode implantar torres no campo de batalha para fornecer cobertura para suas tropas.
+&lt;?CHAR_ICON?&gt;
+Você recebeu um rigoroso treinamento em Arcana em sua juventude, deixando-o como um Mestre em Arcana. Você pode aprender todas as Arcanas de nível 3. Comece com uma pequena cidade e construa edifícios para treinar suas tropas - mas cuidado com os invasores. Após estabelecer relações diplomáticas com outras tribos, você pode aprender sua cultura e treinar suas tropas. Lembre-se de ficar de olho - tropas inimigas podem invadir a qualquer momento.</t>
+  </si>
+  <si>
+    <t>&lt;size=40&gt;Caçador de Recompensas&lt;/size&gt; &lt;color=red&gt;(Dificuldade: Difícil)&lt;/color&gt;
+&lt;color=green&gt;Missões da trama disponíveis!&lt;/color&gt;
+Diferentes conjuntos de habilidades de Caçador de Recompensas; mesma trama que Jackal.
+Aqueles com a coragem e loucura para fazer o que nós não podemos - ou não queremos - são conhecidos como Caçadores de Recompensas. Isso pode ser uma carreira audaciosa, perigosa e lucrativa.
+Você é o líder de um grupo de Caçadores de Recompensas famosos nas regiões desertas conhecidas como Os Chacais. Fama e fortuna estão em seu futuro - desde que você continue exercendo sua letal habilidade no deserto.
+&lt;size=30&gt;Habilidades&lt;/size&gt;
+Você pode invocar poderosos Caçadores de Recompensas para o combate. Também foi treinado por gigantes no uso da espada larga.
 &lt;size=30&gt;Tropas Únicas&lt;/size&gt;
-Tienes la habilidad única de entrenar a reclutas para convertirlos en compañeros Cazadores de Recompensas.
+Você possui a habilidade única de treinar recrutas para se tornarem companheiros Caçadores de Recompensas.
 &lt;size=30&gt;Arcana&lt;/size&gt;
-El Arcano simplemente no es lo tuyo; no puedes aprender ningún Arcana.
+Arcana definitivamente não é o seu forte; você não pode aprender nenhuma Arcana.
 &lt;size=30&gt;Seguidores&lt;/size&gt;
-Comienzas con 2 Cazadores de Recompensas como seguidores.</t>
+Você começa com 2 Caçadores de Recompensas como seguidores.</t>
+  </si>
+  <si>
+    <t>&lt;size=40&gt;Mestre das Feras&lt;/size&gt; &lt;color=red&gt;(Dificuldade: Difícil)&lt;/color&gt;
+&lt;color=green&gt;Missões da trama disponíveis!&lt;/color&gt;
+Habilidades originais de Xamã e trama de Xamã!
+Você é um metamorfo. O Sol Negro trouxe sua maldição, distorcendo a vida de alguns habitantes locais. Mas esta não é uma maldição; o poder latente gravado em suas veias foi apenas liberado pelas energias do Sol Negro. De alguma forma, você esqueceu seus instintos bestiais; de alguma forma, seu próprio cheiro é desconhecido. Perdido em areias poeirentas, você não sabe de onde veio, nem onde está seu destino...
+&lt;size=30&gt;Habilidades&lt;/size&gt;
+Como herdeiro da linhagem do Mestre das Feras, você pode se transformar em um lobisomem, águia ou dragão.
+&lt;size=30&gt;Arcana&lt;/size&gt;
+A besta não pode ser domada; você não pode aprender nenhuma Arcana.
+&lt;size=30&gt;Seguidores&lt;/size&gt;
+Você encontrou alguns lobos selvagens aparentemente separados da matilha. Por algum motivo, eles se apegam a você - e você não consegue se livrar deles facilmente...</t>
+  </si>
+  <si>
+    <t>Você é o estrangeiro neste mundo. Todas as tribos o veem com uma mistura de hostilidade e temor.
+&lt;?ABILITY_ICON?&gt;
+Você pode selecionar as habilidades de qualquer outra classe com seus Pontos de Legado.
+&lt;?CHAR_ICON?&gt;
+Você pode escolher qualquer Arcana na Loja de Classes. Sua relação com todas as tribos é ruim, e uma tribo pode prendê-lo ou declarar guerra a qualquer momento. &lt;color=red&gt;(Requer 120+ Pontos de Legado para desbloquear)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?ABILITY_ICON?&gt;
+Você é o líder dos Akhal - o Sultão Akhal Bahat. Por mais de dez anos, você foi refém na corte da Cidade de Jamal, onde foi comprometido com a Princesa Ilayda quando era jovem. Quando o Antigo Império ameaçou entrar em colapso, você liderou os cavaleiros dos Akhal para apoiá-los, mas não chegou a tempo de evitar que os Akhal depossem o rei. Você ocupa o Deserto de West Docana como seu rei, planejando destruir os Nasir e Dakn e expulsar o rei Nasir da Cidade de Jamal.
+&lt;?ABILITY_ICON?&gt;
+Como líder dos Akhal, você possui habilidades inigualáveis com a espada e resistências. Apenas você comanda os cavaleiros dos Akhal. Mas os Dakn e os Nasir se uniram contra você. Você deve se preparar para uma invasão dessas duas poderosas facções.
+&lt;?CHAR_ICON?&gt;
+Você não tem potencial para aprender qualquer magia. Você começa com uma equipe de elite de cavalaria Akhal. Você ocupa uma vasta região desértica. Três generais Akhal o apoiam.</t>
+  </si>
+  <si>
+    <t>&lt;?ABILITY_ICON?&gt;
+Você é o novo Sultão Nasir - Husnu. Quando jovem, você seguiu seu pai, o poderoso Imran, para uma nova cidade - a antiga capital do Antigo Império - Cidade de Jamal. Lá, você passou todos os dias aprisionado no palácio, aprendendo as artes acadêmicas e da guerra. Imran não precisa de um filho. Ele precisa de um general, um sucessor digno que possa cumprir as ambições do Nasir.
+Agora, o Rei Nasir está velho, e você foi enviado para o Forte Pedra Vermelha para se tornar o novo Sultão Nasir - segundo apenas para o Rei Nasir. A partir daqui, você conquistará todo o deserto em nome de seu pai.
+No entanto, você não sabe se esta é a vida que desejava. Agora você deve decidir se dominará o deserto, derrubará seu cruel pai ou seguirá os passos de seu irmão mais velho e se retirará para o campo para viver sua própria vida. Seu destino está em suas mãos.
+&lt;?ABILITY_ICON?&gt;
+Como líder dos Nasir, você pode usar tanto magia quanto armas.
+&lt;?CHAR_ICON?&gt;
+Você é especialmente hábil na magia arcana, com potencial para aprender qualquer tipo de Arcana avançada. Os Nasir controlam o ponto-chave de Salzaar, o Forte Pedra Vermelha e o fértil Vale Twinluna. Quatro generais Nasir o apoiam.</t>
+  </si>
+  <si>
+    <t>&lt;?ABILITY_ICON?&gt;
+Você é o líder dos Dakn - a Rainha Dakn Rebiya. Seu irmão mais velho Hassan - outrora líder dos Dakn e o melhor Hashashin, conspirou com Husnu dos Nasir para capturar a Cidade de Jamal. Quando os espiritualistas dos Nasir assumiram o controle dos guardas, Hassan infiltrou o palácio com você e um grupo de hashashins Dakn para eliminar o rei e sua guarda real Katara. Mas, embora tenham procurado em todos os lugares pelo herdeiro, a jovem Princesa Ilayda, não conseguiram encontrá-la. A aliança entre os Dakn e os Nasir desmoronou posteriormente devido a lutas internas pelo controle da cidade. Hassan adoeceu gravemente e está acamado desde então. Você assumiu o comando dos Dakn e também de Pedra Chorosa por meios expeditos. Agora, você planeja apoderar-se do Forte Pedra Vermelha, domínio do recém-coroado Sultão Nasir Husnu. E sua trama não termina aqui...
+&lt;?ABILITY_ICON?&gt;
+Como líder dos Dakn, você é especialista em venenos e em direcionar os Dakn para alcançar seus objetivos.
+&lt;?CHAR_ICON?&gt;
+Você é especialmente habilidosa na magia arcana, com potencial para dominar qualquer tipo de magia. Os Dakn controlam a região de terreno complexo ao redor de Pedra Chorosa. Três generais Dakn a apoiam.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,27 +491,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -561,47 +535,49 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -906,306 +882,307 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="61.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.28515625" customWidth="1"/>
     <col min="5" max="5" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="67.5">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="240">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="330">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="255">
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="300">
+      <c r="A5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
+    <row r="6" spans="1:5" ht="255">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="B6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="E6" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="300">
+      <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="B7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E7" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="315">
+      <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="E8" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="210">
+      <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="D9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="E9" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="225">
+      <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="C10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="E10" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="285">
+      <c r="A11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="C11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="E11" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="409.5">
+      <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="E12" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="375">
+      <c r="A13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="B13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="E13" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="150">
+      <c r="A14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="E14" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="285">
+      <c r="A15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="B15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="E15" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="360">
+      <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="C16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="360">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="390" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="D26" s="1"/>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/english/J剧本设定_StoryMode_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/J剧本设定_StoryMode_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408B8278-44E0-4C87-89A7-44E247680E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB0DF66-0D6F-4339-BEB2-3C3EB7032D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>剧本ID_ScenarioID</t>
   </si>
@@ -430,12 +430,41 @@
 &lt;?CHAR_ICON?&gt;
 Você é especialmente habilidosa na magia arcana, com potencial para dominar qualquer tipo de magia. Os Dakn controlam a região de terreno complexo ao redor de Pedra Chorosa. Três generais Dakn a apoiam.</t>
   </si>
+  <si>
+    <t>张月[SkipAvata][SkipName]</t>
+  </si>
+  <si>
+    <t>Selene[SkipAvata][SkipName]</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;【汉家江湖联动角色】&lt;/color&gt;
+为感谢各位玩家对汉家松鼠旗下游戏的大力支持，我们制作了第一位汉家江湖联动角色--张月。在游戏《汉家江湖》中，张月是一位重要的角色，她出身非凡，手持十大名剑之一的月白剑，传承着黑衣墨剑的绝世武学，是江湖年轻一辈之中的佼佼者。
+本次联动的剧情时间点为汉家江湖主线剧情.墨城篇结束之时。
+没有体验过汉家江湖游戏的玩家，亦可以直接从本篇剧情开始游戏，不会妨碍对整体剧情的理解。
+&lt;?ABILITY_ICON?&gt;
+张月可以学习一系列黑衣墨剑的武学招式，以及自身所领悟的月白光华、月白寒刃等专有技能。
+&lt;?CHAR_ICON?&gt;
+张月来到这个奇特的世界时，不知为何，背包里多了三颗智慧结晶。虽然未曾学习过巫术，但却具备有一定的巫术天赋。</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;Personagem de Entre Lendas&lt;/color&gt;
+Para agradecer aos fãs de nosso estúdio, produzimos este mod apresentando Selene, uma personagem de Entre Lendas, um de nossos outros jogos. Selene é uma das personagens principais em Entre Lendas e empunha a Espada Celestial, uma das dez espadas lendárias. Ela também é a herdeira do estilo de combate conhecido apenas pelos membros do Cresta do Corvo, uma seita marcial secreta.
+Selene chegou a Salzaar perto do desfecho da trama da Ebonwood em Entre Lendas.
+Ainda não jogou Entre Lendas? Você ainda poderá desfrutar da breve história de Selene enquanto ela explora o deserto e suas memórias.
+&lt;?ABILITY_ICON?&gt;
+Selene é proficiente nas artes da Cresta do Corvo e empunha a Espada Celestial. Ela possui habilidades únicas, incluindo Radiância Celestial, Lâmina Gélida Celestial, e muito mais.
+&lt;?CHAR_ICON?&gt;
+Selene tem três Cristais de Sabedoria em sua bolsa, embora ela não saiba quem os colocou lá. Apesar de nunca ter praticado arcana, Selene é capaz de compreender toda a Arcana de Nível 2.</t>
+  </si>
+  <si>
+    <t>汉家江湖张月</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +493,29 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -528,13 +580,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -575,10 +631,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad 2" xfId="3" xr:uid="{8D319A8F-70FC-44BC-9EBD-86B15ACA352B}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6D2EE7DD-F902-4485-A8DA-65DEF60DD24F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -882,15 +943,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.28515625" customWidth="1"/>
-    <col min="5" max="5" width="59.28515625" customWidth="1"/>
+    <col min="5" max="5" width="74.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="67.5">
@@ -910,7 +971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="240">
+    <row r="2" spans="1:5" ht="195">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -927,7 +988,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="330">
+    <row r="3" spans="1:5" ht="270">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -944,7 +1005,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="255">
+    <row r="4" spans="1:5" ht="210">
       <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
@@ -961,7 +1022,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="300">
+    <row r="5" spans="1:5" ht="240">
       <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
@@ -978,7 +1039,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="255">
+    <row r="6" spans="1:5" ht="210">
       <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
@@ -995,7 +1056,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="300">
+    <row r="7" spans="1:5" ht="270">
       <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
@@ -1012,7 +1073,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="315">
+    <row r="8" spans="1:5" ht="300">
       <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
@@ -1029,7 +1090,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="210">
+    <row r="9" spans="1:5" ht="180">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
@@ -1046,7 +1107,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="225">
+    <row r="10" spans="1:5" ht="180">
       <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
@@ -1063,7 +1124,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="285">
+    <row r="11" spans="1:5" ht="225">
       <c r="A11" s="12" t="s">
         <v>28</v>
       </c>
@@ -1080,7 +1141,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="409.5">
+    <row r="12" spans="1:5" ht="405">
       <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
@@ -1097,7 +1158,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="375">
+    <row r="13" spans="1:5" ht="330">
       <c r="A13" s="13" t="s">
         <v>33</v>
       </c>
@@ -1131,7 +1192,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="285">
+    <row r="15" spans="1:5" ht="255">
       <c r="A15" s="12" t="s">
         <v>37</v>
       </c>
@@ -1148,7 +1209,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="360">
+    <row r="16" spans="1:5" ht="315">
       <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
@@ -1165,7 +1226,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="360">
+    <row r="17" spans="1:5" ht="300">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1180,6 +1241,23 @@
       </c>
       <c r="E17" s="11" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="285">
+      <c r="A18" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5">
